--- a/Baculovirus/baculo.xlsx
+++ b/Baculovirus/baculo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Missing</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>9 Species, 36 entries</t>
+  </si>
+  <si>
+    <t>Lasso</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -379,7 +382,7 @@
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -387,13 +390,16 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -409,8 +415,11 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="C3">
         <v>36</v>
       </c>
@@ -421,13 +430,16 @@
         <v>2</v>
       </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -438,13 +450,16 @@
         <v>8</v>
       </c>
       <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -458,10 +473,13 @@
         <v>8</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="E6">
         <v>20</v>
       </c>
@@ -469,6 +487,9 @@
         <v>10</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
     </row>
